--- a/Results01.xlsx
+++ b/Results01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infactocom-my.sharepoint.com/personal/emre_erdogan_infakto_com_tr/Documents/Masaüstü/CO3/C03/Reporting Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{49BDA251-27A0-4E1C-9B65-BD62BA9FE1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9500721D-4E32-4393-893B-F78065A8C467}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{49BDA251-27A0-4E1C-9B65-BD62BA9FE1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F15D6C3E-4171-40F7-9A5A-B9A6BB5F60C4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{E78E9D0A-7DE7-49FB-A17E-E9D3AD9FFBA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E78E9D0A-7DE7-49FB-A17E-E9D3AD9FFBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,9 +302,6 @@
     <t>D5_Belief in Democracy</t>
   </si>
   <si>
-    <t>D5_ProMarket</t>
-  </si>
-  <si>
     <t>Resilience</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>Domain 6</t>
+  </si>
+  <si>
+    <t>D5_ProState</t>
   </si>
 </sst>
 </file>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7924BD65-5BF9-4311-9747-F05ED1A9FEFF}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,10 +826,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
       </c>
       <c r="C2">
         <v>1991</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -2808,7 +2808,7 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1">
         <v>-5.6669999999999998E-2</v>
@@ -2864,10 +2864,10 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
@@ -2959,7 +2959,7 @@
   <sheetData>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
@@ -5365,7 +5365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C7599A-F3CD-4C6D-9255-B23614DCA5C4}">
   <dimension ref="E2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2:O7"/>
     </sheetView>
   </sheetViews>
@@ -5373,13 +5373,13 @@
   <sheetData>
     <row r="2" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O2" t="s">
         <v>66</v>
@@ -5390,7 +5390,7 @@
         <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
         <v>67</v>
@@ -5401,7 +5401,7 @@
         <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O4" t="s">
         <v>68</v>
@@ -5409,13 +5409,13 @@
     </row>
     <row r="5" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O5" t="s">
         <v>78</v>
@@ -5426,7 +5426,7 @@
         <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O6" t="s">
         <v>79</v>
@@ -5434,21 +5434,21 @@
     </row>
     <row r="7" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
         <v>68</v>
       </c>
       <c r="N7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -5496,27 +5496,27 @@
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
         <v>68</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
         <v>79</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
